--- a/Code/Results/Cases/Case_8_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.056988380828216</v>
+        <v>3.627402724567901</v>
       </c>
       <c r="C2">
-        <v>0.8932187525488189</v>
+        <v>0.9622149941869509</v>
       </c>
       <c r="D2">
-        <v>0.003168828615741859</v>
+        <v>0.006228943918117125</v>
       </c>
       <c r="E2">
-        <v>0.01600328292868619</v>
+        <v>0.0226057549912726</v>
       </c>
       <c r="F2">
-        <v>2.416633532269088</v>
+        <v>1.974690566751121</v>
       </c>
       <c r="G2">
-        <v>0.0008317078522775934</v>
+        <v>0.02204349811167639</v>
       </c>
       <c r="H2">
-        <v>0.01011431260245654</v>
+        <v>0.004664262635968419</v>
       </c>
       <c r="I2">
-        <v>0.01033275194870331</v>
+        <v>0.004077601222133964</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.240092110409712</v>
+        <v>0.9430959459336066</v>
       </c>
       <c r="L2">
-        <v>0.04330664824435537</v>
+        <v>0.3974232533203974</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3127153829681859</v>
       </c>
       <c r="N2">
-        <v>0.376935546206127</v>
+        <v>0.04709698659975947</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.112326810437157</v>
+        <v>0.4104590670909403</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9348725832963893</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.555933734925475</v>
+        <v>3.180284177356157</v>
       </c>
       <c r="C3">
-        <v>0.7752966118551115</v>
+        <v>0.8340224164225276</v>
       </c>
       <c r="D3">
-        <v>0.002557616770857862</v>
+        <v>0.006058647876592271</v>
       </c>
       <c r="E3">
-        <v>0.01420242857232912</v>
+        <v>0.02134481959549506</v>
       </c>
       <c r="F3">
-        <v>2.235993311908913</v>
+        <v>1.827617322002723</v>
       </c>
       <c r="G3">
-        <v>0.0008373796381154295</v>
+        <v>0.02939388803513543</v>
       </c>
       <c r="H3">
-        <v>0.014848190676722</v>
+        <v>0.007246623845290068</v>
       </c>
       <c r="I3">
-        <v>0.0151589944008319</v>
+        <v>0.006273696645500593</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.167248908055726</v>
+        <v>0.8921878700284793</v>
       </c>
       <c r="L3">
-        <v>0.03922022733422814</v>
+        <v>0.3871528967382716</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2860422072667603</v>
       </c>
       <c r="N3">
-        <v>0.3333862017922513</v>
+        <v>0.04414537474624325</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.143826977924515</v>
+        <v>0.3638027041964591</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9645194647407163</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.248587171073552</v>
+        <v>2.904694861339465</v>
       </c>
       <c r="C4">
-        <v>0.7037346126829505</v>
+        <v>0.7558012113043162</v>
       </c>
       <c r="D4">
-        <v>0.002203054105017088</v>
+        <v>0.005960975010834257</v>
       </c>
       <c r="E4">
-        <v>0.01312431201105968</v>
+        <v>0.02057072682218597</v>
       </c>
       <c r="F4">
-        <v>2.126115921126129</v>
+        <v>1.737340340328757</v>
       </c>
       <c r="G4">
-        <v>0.0008409769416479717</v>
+        <v>0.03460020340384307</v>
       </c>
       <c r="H4">
-        <v>0.01831375012546954</v>
+        <v>0.00917958945938728</v>
       </c>
       <c r="I4">
-        <v>0.01873799311257685</v>
+        <v>0.007979285781003043</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.122856476090661</v>
+        <v>0.8607597985422473</v>
       </c>
       <c r="L4">
-        <v>0.03673081343687201</v>
+        <v>0.3804126144567377</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2705165446483733</v>
       </c>
       <c r="N4">
-        <v>0.3067901399383715</v>
+        <v>0.04231836642742692</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.163483033730071</v>
+        <v>0.3352851557245771</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9829941677911762</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.120982134406745</v>
+        <v>2.789954475396428</v>
       </c>
       <c r="C5">
-        <v>0.6750665946581478</v>
+        <v>0.7243317928686679</v>
       </c>
       <c r="D5">
-        <v>0.002046822850211072</v>
+        <v>0.005922153956960496</v>
       </c>
       <c r="E5">
-        <v>0.01268807358753521</v>
+        <v>0.02025320327708752</v>
       </c>
       <c r="F5">
-        <v>2.079539855616829</v>
+        <v>1.698785044700372</v>
       </c>
       <c r="G5">
-        <v>0.0008424829656176192</v>
+        <v>0.03690513561947029</v>
       </c>
       <c r="H5">
-        <v>0.01987106612883227</v>
+        <v>0.01005704337876125</v>
       </c>
       <c r="I5">
-        <v>0.02044223344798279</v>
+        <v>0.008859489128465015</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.103491826561616</v>
+        <v>0.8467932047933573</v>
       </c>
       <c r="L5">
-        <v>0.03569538182935261</v>
+        <v>0.3770856608266087</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2640371840822269</v>
       </c>
       <c r="N5">
-        <v>0.2961045530526292</v>
+        <v>0.04155186026126811</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.17094555359299</v>
+        <v>0.32381199475671</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9902428275526862</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.09687135023114</v>
+        <v>2.768254576412232</v>
       </c>
       <c r="C6">
-        <v>0.6706931204491866</v>
+        <v>0.7194793317237611</v>
       </c>
       <c r="D6">
-        <v>0.002001567128367299</v>
+        <v>0.005915226759331649</v>
       </c>
       <c r="E6">
-        <v>0.01261292520947105</v>
+        <v>0.02019854316124842</v>
       </c>
       <c r="F6">
-        <v>2.069340299953424</v>
+        <v>1.690235627964583</v>
       </c>
       <c r="G6">
-        <v>0.0008427477852073889</v>
+        <v>0.03731809553799903</v>
       </c>
       <c r="H6">
-        <v>0.02015150871642379</v>
+        <v>0.01021559000850864</v>
       </c>
       <c r="I6">
-        <v>0.02086193197901931</v>
+        <v>0.009141329659215103</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.09863720728918</v>
+        <v>0.8431144501886081</v>
       </c>
       <c r="L6">
-        <v>0.03549458987696585</v>
+        <v>0.3759528275671613</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2625307076139158</v>
       </c>
       <c r="N6">
-        <v>0.294481856519397</v>
+        <v>0.04140331178507095</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.171432093027885</v>
+        <v>0.3220552786474826</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9910327474283847</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.238850703408787</v>
+        <v>2.884841301807</v>
       </c>
       <c r="C7">
-        <v>0.7043762475206279</v>
+        <v>0.7498426385187997</v>
       </c>
       <c r="D7">
-        <v>0.002147097344298743</v>
+        <v>0.005949323109340821</v>
       </c>
       <c r="E7">
-        <v>0.01311007249629154</v>
+        <v>0.02057511490613861</v>
       </c>
       <c r="F7">
-        <v>2.118707441365643</v>
+        <v>1.719539646140547</v>
       </c>
       <c r="G7">
-        <v>0.0008410320800939277</v>
+        <v>0.03523985860644974</v>
       </c>
       <c r="H7">
-        <v>0.01837000483259932</v>
+        <v>0.009251798271929568</v>
       </c>
       <c r="I7">
-        <v>0.01908948771360564</v>
+        <v>0.008369502173272814</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.118101438868656</v>
+        <v>0.8512057954668393</v>
       </c>
       <c r="L7">
-        <v>0.03663727962225138</v>
+        <v>0.3764536162913856</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2673198451396139</v>
       </c>
       <c r="N7">
-        <v>0.3070565777886713</v>
+        <v>0.04220362298716385</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.161531862472504</v>
+        <v>0.3347786715636119</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9803358440130232</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.873381801721848</v>
+        <v>3.426554770228279</v>
       </c>
       <c r="C8">
-        <v>0.8537364019124993</v>
+        <v>0.8972653544318234</v>
       </c>
       <c r="D8">
-        <v>0.002881009233787424</v>
+        <v>0.006167453854159399</v>
       </c>
       <c r="E8">
-        <v>0.01536415841224481</v>
+        <v>0.02221215004921007</v>
       </c>
       <c r="F8">
-        <v>2.345099095259485</v>
+        <v>1.87836076352491</v>
       </c>
       <c r="G8">
-        <v>0.0008336845245172928</v>
+        <v>0.02686425605472653</v>
       </c>
       <c r="H8">
-        <v>0.0116628151520862</v>
+        <v>0.005600845352241923</v>
       </c>
       <c r="I8">
-        <v>0.0122464483531477</v>
+        <v>0.005260488722714562</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.208929242510422</v>
+        <v>0.9020297933063617</v>
       </c>
       <c r="L8">
-        <v>0.0417849688182006</v>
+        <v>0.3845549684226413</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2950875729514024</v>
       </c>
       <c r="N8">
-        <v>0.3624343426702694</v>
+        <v>0.04584828329502777</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.120483334173123</v>
+        <v>0.3923440761017361</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9389028639591883</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.137039024559044</v>
+        <v>4.53462294388919</v>
       </c>
       <c r="C9">
-        <v>1.152686661761379</v>
+        <v>1.212734199688384</v>
       </c>
       <c r="D9">
-        <v>0.004624562601277304</v>
+        <v>0.006641922575270076</v>
       </c>
       <c r="E9">
-        <v>0.02008623599256948</v>
+        <v>0.02539748718662094</v>
       </c>
       <c r="F9">
-        <v>2.811165840101211</v>
+        <v>2.242486504680173</v>
       </c>
       <c r="G9">
-        <v>0.0008200978804833514</v>
+        <v>0.01272205312055252</v>
       </c>
       <c r="H9">
-        <v>0.003232674042362715</v>
+        <v>0.00120602037239026</v>
       </c>
       <c r="I9">
-        <v>0.003614062791066353</v>
+        <v>0.001528568863315982</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.398473244793067</v>
+        <v>1.027615354471642</v>
       </c>
       <c r="L9">
-        <v>0.05228713602515622</v>
+        <v>0.4082069749603647</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.365572368803555</v>
       </c>
       <c r="N9">
-        <v>0.47171528797044</v>
+        <v>0.05319557843924683</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.046253855283275</v>
+        <v>0.5084636851233455</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8674751898424082</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.02958270237383</v>
+        <v>5.244085833669033</v>
       </c>
       <c r="C10">
-        <v>1.374255964809265</v>
+        <v>1.403127827745834</v>
       </c>
       <c r="D10">
-        <v>0.006161718556040086</v>
+        <v>0.007250502526318203</v>
       </c>
       <c r="E10">
-        <v>0.02367046289019392</v>
+        <v>0.02769315115106263</v>
       </c>
       <c r="F10">
-        <v>3.119513400318652</v>
+        <v>2.411903115831564</v>
       </c>
       <c r="G10">
-        <v>0.0008108255179939371</v>
+        <v>0.01434226528103721</v>
       </c>
       <c r="H10">
-        <v>0.0006963433936904018</v>
+        <v>0.0002730692147032698</v>
       </c>
       <c r="I10">
-        <v>0.001217215901144542</v>
+        <v>0.001082193439658319</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.518231856533575</v>
+        <v>1.071203380375216</v>
       </c>
       <c r="L10">
-        <v>0.05918945986605362</v>
+        <v>0.4061725582957791</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4028659437827571</v>
       </c>
       <c r="N10">
-        <v>0.5396290979511917</v>
+        <v>0.05771725799078986</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9848871277692766</v>
+        <v>0.5757701321284401</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8085882119423813</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.089362635712575</v>
+        <v>5.174043853969181</v>
       </c>
       <c r="C11">
-        <v>1.432212654815885</v>
+        <v>1.372799481349489</v>
       </c>
       <c r="D11">
-        <v>0.007685757039363139</v>
+        <v>0.008364111499263416</v>
       </c>
       <c r="E11">
-        <v>0.0257145232469207</v>
+        <v>0.0282584079954693</v>
       </c>
       <c r="F11">
-        <v>2.914790402060419</v>
+        <v>2.1153095011056</v>
       </c>
       <c r="G11">
-        <v>0.0008084190369505327</v>
+        <v>0.04796777046938772</v>
       </c>
       <c r="H11">
-        <v>0.01911109199917504</v>
+        <v>0.01884336909581918</v>
       </c>
       <c r="I11">
-        <v>0.001528361528437827</v>
+        <v>0.001734577843934382</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.393238028979837</v>
+        <v>0.9149744811654941</v>
       </c>
       <c r="L11">
-        <v>0.05772046984879475</v>
+        <v>0.3430983285259259</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3500666511503496</v>
       </c>
       <c r="N11">
-        <v>0.4558525425503461</v>
+        <v>0.05868310003582522</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8969570187390445</v>
+        <v>0.4784933519480745</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7751183778148505</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.960022397571549</v>
+        <v>5.017059581028775</v>
       </c>
       <c r="C12">
-        <v>1.431219202831642</v>
+        <v>1.329556756986676</v>
       </c>
       <c r="D12">
-        <v>0.008785813148442401</v>
+        <v>0.008860988183539309</v>
       </c>
       <c r="E12">
-        <v>0.028992084432792</v>
+        <v>0.02996702037932764</v>
       </c>
       <c r="F12">
-        <v>2.691964391257414</v>
+        <v>1.889408917979182</v>
       </c>
       <c r="G12">
-        <v>0.0008081753681903336</v>
+        <v>0.07262523770783247</v>
       </c>
       <c r="H12">
-        <v>0.05785080169695789</v>
+        <v>0.05756893687952669</v>
       </c>
       <c r="I12">
-        <v>0.001525125842683828</v>
+        <v>0.001732074106316261</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.273371824148711</v>
+        <v>0.8062661759876164</v>
       </c>
       <c r="L12">
-        <v>0.06165978285281426</v>
+        <v>0.3025822421281106</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.309494180161046</v>
       </c>
       <c r="N12">
-        <v>0.376921715063915</v>
+        <v>0.064950357879626</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8513696868698375</v>
+        <v>0.3923096363200216</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7803379698615274</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.665797767341303</v>
+        <v>4.799998007970657</v>
       </c>
       <c r="C13">
-        <v>1.386154771756708</v>
+        <v>1.290666887923464</v>
       </c>
       <c r="D13">
-        <v>0.009487930225642316</v>
+        <v>0.008692604120624559</v>
       </c>
       <c r="E13">
-        <v>0.03329344844042659</v>
+        <v>0.0333171821923024</v>
       </c>
       <c r="F13">
-        <v>2.432504021409827</v>
+        <v>1.712254912641839</v>
       </c>
       <c r="G13">
-        <v>0.0008096314916317127</v>
+        <v>0.06741519974077903</v>
       </c>
       <c r="H13">
-        <v>0.1138910722788751</v>
+        <v>0.1134339423847734</v>
       </c>
       <c r="I13">
-        <v>0.001646922741667112</v>
+        <v>0.001686153133780621</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.143843219923582</v>
+        <v>0.7283634007172211</v>
       </c>
       <c r="L13">
-        <v>0.06969443648557316</v>
+        <v>0.2759778558354853</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2773461907530432</v>
       </c>
       <c r="N13">
-        <v>0.2984933753292864</v>
+        <v>0.07562401067336211</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8317730348330712</v>
+        <v>0.3114871131929959</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8003472176116162</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.384797487032642</v>
+        <v>4.616816091153623</v>
       </c>
       <c r="C14">
-        <v>1.335265255098022</v>
+        <v>1.264460305613738</v>
       </c>
       <c r="D14">
-        <v>0.009773646731748187</v>
+        <v>0.008525136409916811</v>
       </c>
       <c r="E14">
-        <v>0.03702343880678072</v>
+        <v>0.03701908135992404</v>
       </c>
       <c r="F14">
-        <v>2.235161008568582</v>
+        <v>1.604853321971987</v>
       </c>
       <c r="G14">
-        <v>0.0008114210961005508</v>
+        <v>0.05142261149175908</v>
       </c>
       <c r="H14">
-        <v>0.1636096186741156</v>
+        <v>0.1629100385538464</v>
       </c>
       <c r="I14">
-        <v>0.001973846041519955</v>
+        <v>0.001768517873939501</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.049129012268949</v>
+        <v>0.6845929024341402</v>
       </c>
       <c r="L14">
-        <v>0.07796304149452737</v>
+        <v>0.2622093003929535</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2577265654341758</v>
       </c>
       <c r="N14">
-        <v>0.2454598506703576</v>
+        <v>0.08586970069931255</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8310442470781432</v>
+        <v>0.2583099407406735</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8179322420103148</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.279300449361187</v>
+        <v>4.554309942060968</v>
       </c>
       <c r="C15">
-        <v>1.314142237576277</v>
+        <v>1.257973733820904</v>
       </c>
       <c r="D15">
-        <v>0.00971635164674467</v>
+        <v>0.008489868341965412</v>
       </c>
       <c r="E15">
-        <v>0.03782916774429168</v>
+        <v>0.03812898885843019</v>
       </c>
       <c r="F15">
-        <v>2.176978082390434</v>
+        <v>1.582860362222675</v>
       </c>
       <c r="G15">
-        <v>0.0008122458607643601</v>
+        <v>0.04327794185349632</v>
       </c>
       <c r="H15">
-        <v>0.1763112257507515</v>
+        <v>0.1754834354545807</v>
       </c>
       <c r="I15">
-        <v>0.002257218560330898</v>
+        <v>0.001937276663396936</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.022329098102311</v>
+        <v>0.6769591827784964</v>
       </c>
       <c r="L15">
-        <v>0.08000212610909685</v>
+        <v>0.2604049150810539</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.253513135965612</v>
       </c>
       <c r="N15">
-        <v>0.2320269178312486</v>
+        <v>0.08851089181593252</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8345658197919628</v>
+        <v>0.2454035042688361</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8224661221333349</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.957731393659856</v>
+        <v>4.392554375692498</v>
       </c>
       <c r="C16">
-        <v>1.228629542957322</v>
+        <v>1.24387086202421</v>
       </c>
       <c r="D16">
-        <v>0.008755740727778516</v>
+        <v>0.008497977357654563</v>
       </c>
       <c r="E16">
-        <v>0.03520037646535634</v>
+        <v>0.03787601164633791</v>
       </c>
       <c r="F16">
-        <v>2.098540877172312</v>
+        <v>1.625339094272874</v>
       </c>
       <c r="G16">
-        <v>0.000815913429777548</v>
+        <v>0.01631861937973511</v>
       </c>
       <c r="H16">
-        <v>0.1646534595566607</v>
+        <v>0.1631039148612388</v>
       </c>
       <c r="I16">
-        <v>0.003304125242346245</v>
+        <v>0.002249974892909457</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9972027321251957</v>
+        <v>0.7089049754966439</v>
       </c>
       <c r="L16">
-        <v>0.07513998755613471</v>
+        <v>0.2767126392499861</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2597729726751083</v>
       </c>
       <c r="N16">
-        <v>0.2216949638473551</v>
+        <v>0.08473798412719091</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8619349489022179</v>
+        <v>0.2399872344420828</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8231521839067817</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.859216929905131</v>
+        <v>4.349059058061982</v>
       </c>
       <c r="C17">
-        <v>1.190314678241123</v>
+        <v>1.237316916477766</v>
       </c>
       <c r="D17">
-        <v>0.007886917209681599</v>
+        <v>0.008406495850586282</v>
       </c>
       <c r="E17">
-        <v>0.03104453598837509</v>
+        <v>0.0349169665004414</v>
       </c>
       <c r="F17">
-        <v>2.141581153420461</v>
+        <v>1.704418020043505</v>
       </c>
       <c r="G17">
-        <v>0.0008177879488586729</v>
+        <v>0.01109676556234707</v>
       </c>
       <c r="H17">
-        <v>0.127553736082362</v>
+        <v>0.125560272837177</v>
       </c>
       <c r="I17">
-        <v>0.003990832059188598</v>
+        <v>0.002488285069139451</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.027243536985829</v>
+        <v>0.7524747692283569</v>
       </c>
       <c r="L17">
-        <v>0.06648998283782959</v>
+        <v>0.2956591956954426</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2728158638072031</v>
       </c>
       <c r="N17">
-        <v>0.2408451429830762</v>
+        <v>0.07571927208904583</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8825880977221359</v>
+        <v>0.2628095550041678</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8218266741005742</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.946600150748168</v>
+        <v>4.433002908488504</v>
       </c>
       <c r="C18">
-        <v>1.186576999964416</v>
+        <v>1.249837714372461</v>
       </c>
       <c r="D18">
-        <v>0.007064327219868716</v>
+        <v>0.008024458737606821</v>
       </c>
       <c r="E18">
-        <v>0.02617669268546763</v>
+        <v>0.03059497629679964</v>
       </c>
       <c r="F18">
-        <v>2.302048345869963</v>
+        <v>1.852099553887115</v>
       </c>
       <c r="G18">
-        <v>0.0008182389325146477</v>
+        <v>0.009813598224848619</v>
       </c>
       <c r="H18">
-        <v>0.07483663659287743</v>
+        <v>0.07275496851404739</v>
       </c>
       <c r="I18">
-        <v>0.00387269757553721</v>
+        <v>0.002238319405212685</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.113697282668589</v>
+        <v>0.8250561084826273</v>
       </c>
       <c r="L18">
-        <v>0.05663351232014691</v>
+        <v>0.3240889200262131</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2985423018570614</v>
       </c>
       <c r="N18">
-        <v>0.2909915471704494</v>
+        <v>0.06423245502966068</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9065236920838213</v>
+        <v>0.3174495064117195</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.819434219301149</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.163193898451141</v>
+        <v>4.610742978079145</v>
       </c>
       <c r="C19">
-        <v>1.21260206871716</v>
+        <v>1.284628893284321</v>
       </c>
       <c r="D19">
-        <v>0.006224727821274811</v>
+        <v>0.007500138884839913</v>
       </c>
       <c r="E19">
-        <v>0.02264738324416182</v>
+        <v>0.02723887526702784</v>
       </c>
       <c r="F19">
-        <v>2.541071138235594</v>
+        <v>2.048339261183628</v>
       </c>
       <c r="G19">
-        <v>0.0008174891599152141</v>
+        <v>0.008959618843739303</v>
       </c>
       <c r="H19">
-        <v>0.02907811432927332</v>
+        <v>0.02726599330070201</v>
       </c>
       <c r="I19">
-        <v>0.003645171966935479</v>
+        <v>0.002265135737554935</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.23667224269748</v>
+        <v>0.9170009656240481</v>
       </c>
       <c r="L19">
-        <v>0.05115148962445559</v>
+        <v>0.3584758768513225</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3331432554523559</v>
       </c>
       <c r="N19">
-        <v>0.3691113618041157</v>
+        <v>0.05609843654660551</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.939318983672969</v>
+        <v>0.4010367932842058</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8217485359133221</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.767052140754402</v>
+        <v>5.075334156590202</v>
       </c>
       <c r="C20">
-        <v>1.318589516090697</v>
+        <v>1.380257615481582</v>
       </c>
       <c r="D20">
-        <v>0.005571926206160427</v>
+        <v>0.007013053070442532</v>
       </c>
       <c r="E20">
-        <v>0.02266476328537292</v>
+        <v>0.02701296099572315</v>
       </c>
       <c r="F20">
-        <v>3.014885179024816</v>
+        <v>2.388829267296401</v>
       </c>
       <c r="G20">
-        <v>0.0008133350239339781</v>
+        <v>0.00859534852799726</v>
       </c>
       <c r="H20">
-        <v>0.001136392447693702</v>
+        <v>0.0003590811524833981</v>
       </c>
       <c r="I20">
-        <v>0.002415571265170335</v>
+        <v>0.002009388067279794</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.471596036011206</v>
+        <v>1.067810819185425</v>
       </c>
       <c r="L20">
-        <v>0.05704486337673309</v>
+        <v>0.4096387997628526</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3960218226377918</v>
       </c>
       <c r="N20">
-        <v>0.5224428542082507</v>
+        <v>0.05651443695062097</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9948084977252805</v>
+        <v>0.5615217455745665</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8248555716772286</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.519382916326606</v>
+        <v>5.451437640626409</v>
       </c>
       <c r="C21">
-        <v>1.498700385812128</v>
+        <v>1.408454624364254</v>
       </c>
       <c r="D21">
-        <v>0.00672717552741986</v>
+        <v>0.009195119991689538</v>
       </c>
       <c r="E21">
-        <v>0.02578313550015288</v>
+        <v>0.02968576659936328</v>
       </c>
       <c r="F21">
-        <v>3.320111073929667</v>
+        <v>2.359112388920423</v>
       </c>
       <c r="G21">
-        <v>0.0008060265422187636</v>
+        <v>0.0683352132058701</v>
       </c>
       <c r="H21">
-        <v>1.296774073678009E-05</v>
+        <v>5.586196806905974E-06</v>
       </c>
       <c r="I21">
-        <v>0.001667701850328385</v>
+        <v>0.002086489908456279</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.599217283425787</v>
+        <v>1.024081262364049</v>
       </c>
       <c r="L21">
-        <v>0.0642213861484624</v>
+        <v>0.3808277210021416</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3946982328206019</v>
       </c>
       <c r="N21">
-        <v>0.5962885703003167</v>
+        <v>0.06008786654230835</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9620400314175654</v>
+        <v>0.6208109954933718</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7733830600835576</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.005180645563485</v>
+        <v>5.670844660490729</v>
       </c>
       <c r="C22">
-        <v>1.614263433643089</v>
+        <v>1.414625298796352</v>
       </c>
       <c r="D22">
-        <v>0.007657158532845543</v>
+        <v>0.01218177534403075</v>
       </c>
       <c r="E22">
-        <v>0.02784023156412263</v>
+        <v>0.03174635452791419</v>
       </c>
       <c r="F22">
-        <v>3.511132684441094</v>
+        <v>2.317652254573929</v>
       </c>
       <c r="G22">
-        <v>0.000801388973994522</v>
+        <v>0.1564504805522944</v>
       </c>
       <c r="H22">
-        <v>0.000196699653257415</v>
+        <v>0.0001763522944533413</v>
       </c>
       <c r="I22">
-        <v>0.001779274085466298</v>
+        <v>0.002059885300461417</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.679173995085463</v>
+        <v>0.9868461386827008</v>
       </c>
       <c r="L22">
-        <v>0.0685899397823162</v>
+        <v>0.3598198167678035</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3899736441324464</v>
       </c>
       <c r="N22">
-        <v>0.6373275434721393</v>
+        <v>0.06225175062819499</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.939455702032042</v>
+        <v>0.6503831520716119</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7465285771407348</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.755644971431934</v>
+        <v>5.592911968800706</v>
       </c>
       <c r="C23">
-        <v>1.551173906314318</v>
+        <v>1.42728223976286</v>
       </c>
       <c r="D23">
-        <v>0.007219783390185697</v>
+        <v>0.009946337010452666</v>
       </c>
       <c r="E23">
-        <v>0.02674640577343812</v>
+        <v>0.03048917165863241</v>
       </c>
       <c r="F23">
-        <v>3.417098641431096</v>
+        <v>2.37456888364575</v>
       </c>
       <c r="G23">
-        <v>0.0008038218677397834</v>
+        <v>0.09096468147271253</v>
       </c>
       <c r="H23">
-        <v>2.281185547170494E-05</v>
+        <v>6.353382514934225E-05</v>
       </c>
       <c r="I23">
-        <v>0.001333388675072378</v>
+        <v>0.001697269694103554</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.64178598036635</v>
+        <v>1.024085810583671</v>
       </c>
       <c r="L23">
-        <v>0.06634988987882018</v>
+        <v>0.3769896783819249</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3995546324633139</v>
       </c>
       <c r="N23">
-        <v>0.6148862649365441</v>
+        <v>0.06125301330731991</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9536031413526089</v>
+        <v>0.6362189955620607</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7609207124716937</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.800079592499401</v>
+        <v>5.104483321038344</v>
       </c>
       <c r="C24">
-        <v>1.317916239350438</v>
+        <v>1.381460726100045</v>
       </c>
       <c r="D24">
-        <v>0.005581060461258502</v>
+        <v>0.006953759220644562</v>
       </c>
       <c r="E24">
-        <v>0.02275878300405099</v>
+        <v>0.02712756586945486</v>
       </c>
       <c r="F24">
-        <v>3.053337180314543</v>
+        <v>2.422091720377495</v>
       </c>
       <c r="G24">
-        <v>0.0008132394019768874</v>
+        <v>0.00833655398717692</v>
       </c>
       <c r="H24">
-        <v>0.000957195915052278</v>
+        <v>0.0002137628868164043</v>
       </c>
       <c r="I24">
-        <v>0.001881125868665734</v>
+        <v>0.001406330348309837</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.493781296718595</v>
+        <v>1.085505671772232</v>
       </c>
       <c r="L24">
-        <v>0.05793703630329183</v>
+        <v>0.4162915984752402</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4026406478545894</v>
       </c>
       <c r="N24">
-        <v>0.5314571372427963</v>
+        <v>0.05700873721565447</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.004901057217495</v>
+        <v>0.5712761795657286</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8288363976907283</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.779382870325605</v>
+        <v>4.238488899491472</v>
       </c>
       <c r="C25">
-        <v>1.072661895095337</v>
+        <v>1.138201234221242</v>
       </c>
       <c r="D25">
-        <v>0.004025704600110203</v>
+        <v>0.006503045859165502</v>
       </c>
       <c r="E25">
-        <v>0.0187512294884627</v>
+        <v>0.02449830010373732</v>
       </c>
       <c r="F25">
-        <v>2.671384180739892</v>
+        <v>2.149534691125453</v>
       </c>
       <c r="G25">
-        <v>0.0008237414652061043</v>
+        <v>0.01470923572062466</v>
       </c>
       <c r="H25">
-        <v>0.00498445457420138</v>
+        <v>0.002042482935490808</v>
       </c>
       <c r="I25">
-        <v>0.005826531012301572</v>
+        <v>0.002705347802391067</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.338546516118214</v>
+        <v>0.9951338062534774</v>
       </c>
       <c r="L25">
-        <v>0.04925209015484366</v>
+        <v>0.4027155236786868</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3462483018058151</v>
       </c>
       <c r="N25">
-        <v>0.4427125378703067</v>
+        <v>0.05117755804333246</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1.062551353225114</v>
+        <v>0.4787354210098158</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8867853345038039</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
